--- a/src/files/initInfo2.xlsx
+++ b/src/files/initInfo2.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="true"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
+    <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" relationships:id="rId1"/>
-    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="4" relationships:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -322,34 +321,1210 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView defaultGridColor="false" workbookViewId="0"/>
+    <sheetView tabSelected="true" defaultGridColor="false" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>day</v>
+      </c>
+      <c r="B1" t="str">
+        <v>课程1</v>
+      </c>
+      <c r="C1" t="str">
+        <v>课程2</v>
+      </c>
+      <c r="D1" t="str">
+        <v>课程3</v>
+      </c>
+      <c r="E1" t="str">
+        <v>课程4</v>
+      </c>
+      <c r="F1" t="str">
+        <v>课程5</v>
+      </c>
+      <c r="G1" t="str">
+        <v>课程6</v>
+      </c>
+      <c r="H1" t="str">
+        <v>课程7</v>
+      </c>
+      <c r="I1" t="str">
+        <v>课程8</v>
+      </c>
+      <c r="J1" t="str">
+        <v>课程9</v>
+      </c>
+      <c r="K1" t="str">
+        <v>课程10</v>
+      </c>
+      <c r="L1" t="str">
+        <v>课程11</v>
+      </c>
+      <c r="M1" t="str">
+        <v>课程12</v>
+      </c>
+    </row>
     <row r="2">
-      <c r="B2">
-        <v>100</v>
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>班级22</v>
+      </c>
+      <c r="C2" t="str">
+        <v>班级6</v>
+      </c>
+      <c r="D2" t="str">
+        <v>班级25</v>
+      </c>
+      <c r="E2" t="str">
+        <v>班级13</v>
+      </c>
+      <c r="F2" t="str">
+        <v>班级7</v>
+      </c>
+      <c r="G2" t="str">
+        <v>班级16</v>
+      </c>
+      <c r="H2" t="str">
+        <v>班级19</v>
+      </c>
+      <c r="I2" t="str">
+        <v>班级1</v>
+      </c>
+      <c r="J2" t="str">
+        <v>班级10</v>
+      </c>
+      <c r="K2" t="str">
+        <v>班级26</v>
+      </c>
+      <c r="L2" t="str">
+        <v>班级3</v>
+      </c>
+      <c r="M2" t="str">
+        <v>班级17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <v>班级21</v>
+      </c>
+      <c r="C3" t="str">
+        <v>班级13</v>
+      </c>
+      <c r="D3" t="str">
+        <v>班级12</v>
+      </c>
+      <c r="E3" t="str">
+        <v>班级4</v>
+      </c>
+      <c r="F3" t="str">
+        <v>班级22</v>
+      </c>
+      <c r="G3" t="str">
+        <v>班级24</v>
+      </c>
+      <c r="H3" t="str">
+        <v>班级23</v>
+      </c>
+      <c r="I3" t="str">
+        <v>班级19</v>
+      </c>
+      <c r="J3" t="str">
+        <v>班级1</v>
+      </c>
+      <c r="K3" t="str">
+        <v>班级7</v>
+      </c>
+      <c r="L3" t="str">
+        <v>班级26</v>
+      </c>
+      <c r="M3" t="str">
+        <v>班级3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>班级10</v>
+      </c>
+      <c r="C4" t="str">
+        <v>班级14</v>
+      </c>
+      <c r="D4" t="str">
+        <v>班级20</v>
+      </c>
+      <c r="E4" t="str">
+        <v>班级15</v>
+      </c>
+      <c r="F4" t="str">
+        <v>班级4</v>
+      </c>
+      <c r="G4" t="str">
+        <v>班级21</v>
+      </c>
+      <c r="H4" t="str">
+        <v>班级22</v>
+      </c>
+      <c r="I4" t="str">
+        <v>班级6</v>
+      </c>
+      <c r="J4" t="str">
+        <v>班级2</v>
+      </c>
+      <c r="K4" t="str">
+        <v>班级9</v>
+      </c>
+      <c r="L4" t="str">
+        <v>班级11</v>
+      </c>
+      <c r="M4" t="str">
+        <v>班级18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>班级6</v>
+      </c>
+      <c r="C5" t="str">
+        <v>班级2</v>
+      </c>
+      <c r="D5" t="str">
+        <v>班级4</v>
+      </c>
+      <c r="E5" t="str">
+        <v>班级9</v>
+      </c>
+      <c r="F5" t="str">
+        <v>班级21</v>
+      </c>
+      <c r="G5" t="str">
+        <v>班级11</v>
+      </c>
+      <c r="H5" t="str">
+        <v>班级15</v>
+      </c>
+      <c r="I5" t="str">
+        <v>班级13</v>
+      </c>
+      <c r="J5" t="str">
+        <v>班级25</v>
+      </c>
+      <c r="K5" t="str">
+        <v>班级18</v>
+      </c>
+      <c r="L5" t="str">
+        <v>班级1</v>
+      </c>
+      <c r="M5" t="str">
+        <v>班级10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>班级16</v>
+      </c>
+      <c r="C6" t="str">
+        <v>班级19</v>
+      </c>
+      <c r="D6" t="str">
+        <v>班级23</v>
+      </c>
+      <c r="E6" t="str">
+        <v>班级1</v>
+      </c>
+      <c r="F6" t="str">
+        <v>班级8</v>
+      </c>
+      <c r="G6" t="str">
+        <v>班级22</v>
+      </c>
+      <c r="H6" t="str">
+        <v>班级28</v>
+      </c>
+      <c r="I6" t="str">
+        <v>班级14</v>
+      </c>
+      <c r="J6" t="str">
+        <v>班级3</v>
+      </c>
+      <c r="K6" t="str">
+        <v>班级25</v>
+      </c>
+      <c r="L6" t="str">
+        <v>班级6</v>
+      </c>
+      <c r="M6" t="str">
+        <v>班级20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>班级4</v>
+      </c>
+      <c r="C7" t="str">
+        <v>班级16</v>
+      </c>
+      <c r="D7" t="str">
+        <v>班级19</v>
+      </c>
+      <c r="E7" t="str">
+        <v>班级23</v>
+      </c>
+      <c r="F7" t="str">
+        <v>班级1</v>
+      </c>
+      <c r="G7" t="str">
+        <v>班级8</v>
+      </c>
+      <c r="H7" t="str">
+        <v>班级9</v>
+      </c>
+      <c r="I7" t="str">
+        <v>班级22</v>
+      </c>
+      <c r="J7" t="str">
+        <v>班级6</v>
+      </c>
+      <c r="K7" t="str">
+        <v>班级10</v>
+      </c>
+      <c r="L7" t="str">
+        <v>班级13</v>
+      </c>
+      <c r="M7" t="str">
+        <v>班级5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <v>班级9</v>
+      </c>
+      <c r="C8" t="str">
+        <v>班级18</v>
+      </c>
+      <c r="D8" t="str">
+        <v>班级6</v>
+      </c>
+      <c r="E8" t="str">
+        <v>班级3</v>
+      </c>
+      <c r="F8" t="str">
+        <v>班级25</v>
+      </c>
+      <c r="G8" t="str">
+        <v>班级13</v>
+      </c>
+      <c r="H8" t="str">
+        <v>班级7</v>
+      </c>
+      <c r="I8" t="str">
+        <v>班级16</v>
+      </c>
+      <c r="J8" t="str">
+        <v>班级8</v>
+      </c>
+      <c r="K8" t="str">
+        <v>班级17</v>
+      </c>
+      <c r="L8" t="str">
+        <v>班级22</v>
+      </c>
+      <c r="M8" t="str">
+        <v>班级28</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>班级1</v>
+      </c>
+      <c r="C9" t="str">
+        <v>班级7</v>
+      </c>
+      <c r="D9" t="str">
+        <v>班级14</v>
+      </c>
+      <c r="E9" t="str">
+        <v>班级20</v>
+      </c>
+      <c r="F9" t="str">
+        <v>班级15</v>
+      </c>
+      <c r="G9" t="str">
+        <v>班级4</v>
+      </c>
+      <c r="H9" t="str">
+        <v>班级6</v>
+      </c>
+      <c r="I9" t="str">
+        <v>班级25</v>
+      </c>
+      <c r="J9" t="str">
+        <v>班级13</v>
+      </c>
+      <c r="K9" t="str">
+        <v>班级5</v>
+      </c>
+      <c r="L9" t="str">
+        <v>班级9</v>
+      </c>
+      <c r="M9" t="str">
+        <v>班级22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <v>班级7</v>
+      </c>
+      <c r="C10" t="str">
+        <v>班级22</v>
+      </c>
+      <c r="D10" t="str">
+        <v>班级10</v>
+      </c>
+      <c r="E10" t="str">
+        <v>班级16</v>
+      </c>
+      <c r="F10" t="str">
+        <v>班级3</v>
+      </c>
+      <c r="G10" t="str">
+        <v>班级17</v>
+      </c>
+      <c r="H10" t="str">
+        <v>班级21</v>
+      </c>
+      <c r="I10" t="str">
+        <v>班级28</v>
+      </c>
+      <c r="J10" t="str">
+        <v>班级5</v>
+      </c>
+      <c r="K10" t="str">
+        <v>班级20</v>
+      </c>
+      <c r="L10" t="str">
+        <v>班级14</v>
+      </c>
+      <c r="M10" t="str">
+        <v>班级25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <v>班级18</v>
+      </c>
+      <c r="C11" t="str">
+        <v>班级1</v>
+      </c>
+      <c r="D11" t="str">
+        <v>班级7</v>
+      </c>
+      <c r="E11" t="str">
+        <v>班级24</v>
+      </c>
+      <c r="F11" t="str">
+        <v>班级19</v>
+      </c>
+      <c r="G11" t="str">
+        <v>班级23</v>
+      </c>
+      <c r="H11" t="str">
+        <v>班级3</v>
+      </c>
+      <c r="I11" t="str">
+        <v>班级8</v>
+      </c>
+      <c r="J11" t="str">
+        <v>班级22</v>
+      </c>
+      <c r="K11" t="str">
+        <v>班级28</v>
+      </c>
+      <c r="L11" t="str">
+        <v>班级10</v>
+      </c>
+      <c r="M11" t="str">
+        <v>班级27</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <v>班级14</v>
+      </c>
+      <c r="C12" t="str">
+        <v>班级10</v>
+      </c>
+      <c r="D12" t="str">
+        <v>班级13</v>
+      </c>
+      <c r="E12" t="str">
+        <v>班级5</v>
+      </c>
+      <c r="F12" t="str">
+        <v>班级9</v>
+      </c>
+      <c r="G12" t="str">
+        <v>班级6</v>
+      </c>
+      <c r="H12" t="str">
+        <v>班级12</v>
+      </c>
+      <c r="I12" t="str">
+        <v>班级4</v>
+      </c>
+      <c r="J12" t="str">
+        <v>班级15</v>
+      </c>
+      <c r="K12" t="str">
+        <v>班级22</v>
+      </c>
+      <c r="L12" t="str">
+        <v>班级25</v>
+      </c>
+      <c r="M12" t="str">
+        <v>班级24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <v>班级3</v>
+      </c>
+      <c r="C13" t="str">
+        <v>班级25</v>
+      </c>
+      <c r="D13" t="str">
+        <v>班级22</v>
+      </c>
+      <c r="E13" t="str">
+        <v>班级7</v>
+      </c>
+      <c r="F13" t="str">
+        <v>班级16</v>
+      </c>
+      <c r="G13" t="str">
+        <v>班级1</v>
+      </c>
+      <c r="H13" t="str">
+        <v>班级17</v>
+      </c>
+      <c r="I13" t="str">
+        <v>班级21</v>
+      </c>
+      <c r="J13" t="str">
+        <v>班级28</v>
+      </c>
+      <c r="K13" t="str">
+        <v>班级19</v>
+      </c>
+      <c r="L13" t="str">
+        <v>班级23</v>
+      </c>
+      <c r="M13" t="str">
+        <v>班级6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <v>班级25</v>
+      </c>
+      <c r="C14" t="str">
+        <v>班级8</v>
+      </c>
+      <c r="D14" t="str">
+        <v>班级9</v>
+      </c>
+      <c r="E14" t="str">
+        <v>班级11</v>
+      </c>
+      <c r="F14" t="str">
+        <v>班级28</v>
+      </c>
+      <c r="G14" t="str">
+        <v>班级15</v>
+      </c>
+      <c r="H14" t="str">
+        <v>班级4</v>
+      </c>
+      <c r="I14" t="str">
+        <v>班级18</v>
+      </c>
+      <c r="J14" t="str">
+        <v>班级21</v>
+      </c>
+      <c r="K14" t="str">
+        <v>班级16</v>
+      </c>
+      <c r="L14" t="str">
+        <v>班级24</v>
+      </c>
+      <c r="M14" t="str">
+        <v>班级7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <v>班级24</v>
+      </c>
+      <c r="C15" t="str">
+        <v>班级23</v>
+      </c>
+      <c r="D15" t="str">
+        <v>班级11</v>
+      </c>
+      <c r="E15" t="str">
+        <v>班级19</v>
+      </c>
+      <c r="F15" t="str">
+        <v>班级10</v>
+      </c>
+      <c r="G15" t="str">
+        <v>班级12</v>
+      </c>
+      <c r="H15" t="str">
+        <v>班级16</v>
+      </c>
+      <c r="I15" t="str">
+        <v>班级9</v>
+      </c>
+      <c r="J15" t="str">
+        <v>班级17</v>
+      </c>
+      <c r="K15" t="str">
+        <v>班级15</v>
+      </c>
+      <c r="L15" t="str">
+        <v>班级18</v>
+      </c>
+      <c r="M15" t="str">
+        <v>班级1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <v>班级2</v>
+      </c>
+      <c r="C16" t="str">
+        <v>班级9</v>
+      </c>
+      <c r="D16" t="str">
+        <v>班级15</v>
+      </c>
+      <c r="E16" t="str">
+        <v>班级6</v>
+      </c>
+      <c r="F16" t="str">
+        <v>班级5</v>
+      </c>
+      <c r="G16" t="str">
+        <v>班级26</v>
+      </c>
+      <c r="H16" t="str">
+        <v>班级13</v>
+      </c>
+      <c r="I16" t="str">
+        <v>班级12</v>
+      </c>
+      <c r="J16" t="str">
+        <v>班级4</v>
+      </c>
+      <c r="K16" t="str">
+        <v>班级11</v>
+      </c>
+      <c r="L16" t="str">
+        <v>班级21</v>
+      </c>
+      <c r="M16" t="str">
+        <v>班级16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <v>班级13</v>
+      </c>
+      <c r="C17" t="str">
+        <v>班级5</v>
+      </c>
+      <c r="D17" t="str">
+        <v>班级21</v>
+      </c>
+      <c r="E17" t="str">
+        <v>班级22</v>
+      </c>
+      <c r="F17" t="str">
+        <v>班级6</v>
+      </c>
+      <c r="G17" t="str">
+        <v>班级2</v>
+      </c>
+      <c r="H17" t="str">
+        <v>班级11</v>
+      </c>
+      <c r="I17" t="str">
+        <v>班级24</v>
+      </c>
+      <c r="J17" t="str">
+        <v>班级7</v>
+      </c>
+      <c r="K17" t="str">
+        <v>班级8</v>
+      </c>
+      <c r="L17" t="str">
+        <v>班级4</v>
+      </c>
+      <c r="M17" t="str">
+        <v>班级26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <v>班级5</v>
+      </c>
+      <c r="C18" t="str">
+        <v>班级12</v>
+      </c>
+      <c r="D18" t="str">
+        <v>班级18</v>
+      </c>
+      <c r="E18" t="str">
+        <v>班级21</v>
+      </c>
+      <c r="F18" t="str">
+        <v>班级11</v>
+      </c>
+      <c r="G18" t="str">
+        <v>班级9</v>
+      </c>
+      <c r="H18" t="str">
+        <v>班级24</v>
+      </c>
+      <c r="I18" t="str">
+        <v>班级23</v>
+      </c>
+      <c r="J18" t="str">
+        <v>班级20</v>
+      </c>
+      <c r="K18" t="str">
+        <v>班级27</v>
+      </c>
+      <c r="L18" t="str">
+        <v>班级15</v>
+      </c>
+      <c r="M18" t="str">
+        <v>班级2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <v>班级11</v>
+      </c>
+      <c r="C19" t="str">
+        <v>班级4</v>
+      </c>
+      <c r="D19" t="str">
+        <v>班级17</v>
+      </c>
+      <c r="E19" t="str">
+        <v>班级18</v>
+      </c>
+      <c r="F19" t="str">
+        <v>班级24</v>
+      </c>
+      <c r="G19" t="str">
+        <v>班级28</v>
+      </c>
+      <c r="H19" t="str">
+        <v>班级14</v>
+      </c>
+      <c r="I19" t="str">
+        <v>班级2</v>
+      </c>
+      <c r="J19" t="str">
+        <v>班级9</v>
+      </c>
+      <c r="K19" t="str">
+        <v>班级1</v>
+      </c>
+      <c r="L19" t="str">
+        <v>班级19</v>
+      </c>
+      <c r="M19" t="str">
+        <v>班级12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <v>班级27</v>
+      </c>
+      <c r="C20" t="str">
+        <v>班级11</v>
+      </c>
+      <c r="D20" t="str">
+        <v>班级24</v>
+      </c>
+      <c r="E20" t="str">
+        <v>班级10</v>
+      </c>
+      <c r="F20" t="str">
+        <v>班级18</v>
+      </c>
+      <c r="G20" t="str">
+        <v>班级19</v>
+      </c>
+      <c r="H20" t="str">
+        <v>班级1</v>
+      </c>
+      <c r="I20" t="str">
+        <v>班级5</v>
+      </c>
+      <c r="J20" t="str">
+        <v>班级16</v>
+      </c>
+      <c r="K20" t="str">
+        <v>班级4</v>
+      </c>
+      <c r="L20" t="str">
+        <v>班级28</v>
+      </c>
+      <c r="M20" t="str">
+        <v>班级8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="str">
+        <v>班级8</v>
+      </c>
+      <c r="C21" t="str">
+        <v>班级21</v>
+      </c>
+      <c r="D21" t="str">
+        <v>班级26</v>
+      </c>
+      <c r="E21" t="str">
+        <v>班级12</v>
+      </c>
+      <c r="F21" t="str">
+        <v>班级2</v>
+      </c>
+      <c r="G21" t="str">
+        <v>班级18</v>
+      </c>
+      <c r="H21" t="str">
+        <v>班级10</v>
+      </c>
+      <c r="I21" t="str">
+        <v>班级11</v>
+      </c>
+      <c r="J21" t="str">
+        <v>班级24</v>
+      </c>
+      <c r="K21" t="str">
+        <v>班级6</v>
+      </c>
+      <c r="L21" t="str">
+        <v>班级7</v>
+      </c>
+      <c r="M21" t="str">
+        <v>班级13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
+        <v>班级17</v>
+      </c>
+      <c r="C22" t="str">
+        <v>班级15</v>
+      </c>
+      <c r="D22" t="str">
+        <v>班级5</v>
+      </c>
+      <c r="E22" t="str">
+        <v>班级26</v>
+      </c>
+      <c r="F22" t="str">
+        <v>班级12</v>
+      </c>
+      <c r="G22" t="str">
+        <v>班级14</v>
+      </c>
+      <c r="H22" t="str">
+        <v>班级18</v>
+      </c>
+      <c r="I22" t="str">
+        <v>班级3</v>
+      </c>
+      <c r="J22" t="str">
+        <v>班级27</v>
+      </c>
+      <c r="K22" t="str">
+        <v>班级24</v>
+      </c>
+      <c r="L22" t="str">
+        <v>班级16</v>
+      </c>
+      <c r="M22" t="str">
+        <v>班级19</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="str">
+        <v>班级12</v>
+      </c>
+      <c r="C23" t="str">
+        <v>班级24</v>
+      </c>
+      <c r="D23" t="str">
+        <v>班级27</v>
+      </c>
+      <c r="E23" t="str">
+        <v>班级28</v>
+      </c>
+      <c r="F23" t="str">
+        <v>班级26</v>
+      </c>
+      <c r="G23" t="str">
+        <v>班级3</v>
+      </c>
+      <c r="H23" t="str">
+        <v>班级2</v>
+      </c>
+      <c r="I23" t="str">
+        <v>班级15</v>
+      </c>
+      <c r="J23" t="str">
+        <v>班级11</v>
+      </c>
+      <c r="K23" t="str">
+        <v>班级21</v>
+      </c>
+      <c r="L23" t="str">
+        <v>班级5</v>
+      </c>
+      <c r="M23" t="str">
+        <v>班级4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="str">
+        <v>班级15</v>
+      </c>
+      <c r="C24" t="str">
+        <v>班级17</v>
+      </c>
+      <c r="D24" t="str">
+        <v>班级28</v>
+      </c>
+      <c r="E24" t="str">
+        <v>班级14</v>
+      </c>
+      <c r="F24" t="str">
+        <v>班级27</v>
+      </c>
+      <c r="G24" t="str">
+        <v>班级7</v>
+      </c>
+      <c r="H24" t="str">
+        <v>班级25</v>
+      </c>
+      <c r="I24" t="str">
+        <v>班级26</v>
+      </c>
+      <c r="J24" t="str">
+        <v>班级12</v>
+      </c>
+      <c r="K24" t="str">
+        <v>班级3</v>
+      </c>
+      <c r="L24" t="str">
+        <v>班级2</v>
+      </c>
+      <c r="M24" t="str">
+        <v>班级23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="str">
+        <v>班级19</v>
+      </c>
+      <c r="C25" t="str">
+        <v>班级3</v>
+      </c>
+      <c r="D25" t="str">
+        <v>班级8</v>
+      </c>
+      <c r="E25" t="str">
+        <v>班级25</v>
+      </c>
+      <c r="F25" t="str">
+        <v>班级17</v>
+      </c>
+      <c r="G25" t="str">
+        <v>班级10</v>
+      </c>
+      <c r="H25" t="str">
+        <v>班级5</v>
+      </c>
+      <c r="I25" t="str">
+        <v>班级7</v>
+      </c>
+      <c r="J25" t="str">
+        <v>班级18</v>
+      </c>
+      <c r="K25" t="str">
+        <v>班级12</v>
+      </c>
+      <c r="L25" t="str">
+        <v>班级20</v>
+      </c>
+      <c r="M25" t="str">
+        <v>班级14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="str">
+        <v>班级23</v>
+      </c>
+      <c r="C26" t="str">
+        <v>班级20</v>
+      </c>
+      <c r="D26" t="str">
+        <v>班级2</v>
+      </c>
+      <c r="E26" t="str">
+        <v>班级17</v>
+      </c>
+      <c r="F26" t="str">
+        <v>班级13</v>
+      </c>
+      <c r="G26" t="str">
+        <v>班级25</v>
+      </c>
+      <c r="H26" t="str">
+        <v>班级27</v>
+      </c>
+      <c r="I26" t="str">
+        <v>班级10</v>
+      </c>
+      <c r="J26" t="str">
+        <v>班级19</v>
+      </c>
+      <c r="K26" t="str">
+        <v>班级14</v>
+      </c>
+      <c r="L26" t="str">
+        <v>班级8</v>
+      </c>
+      <c r="M26" t="str">
+        <v>班级9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="str">
+        <v>班级20</v>
+      </c>
+      <c r="C27" t="str">
+        <v>班级27</v>
+      </c>
+      <c r="D27" t="str">
+        <v>班级16</v>
+      </c>
+      <c r="E27" t="str">
+        <v>班级2</v>
+      </c>
+      <c r="F27" t="str">
+        <v>班级23</v>
+      </c>
+      <c r="G27" t="str">
+        <v>班级5</v>
+      </c>
+      <c r="H27" t="str">
+        <v>班级26</v>
+      </c>
+      <c r="I27" t="str">
+        <v>班级17</v>
+      </c>
+      <c r="J27" t="str">
+        <v>班级14</v>
+      </c>
+      <c r="K27" t="str">
+        <v>班级13</v>
+      </c>
+      <c r="L27" t="str">
+        <v>班级12</v>
+      </c>
+      <c r="M27" t="str">
+        <v>班级21</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="str">
+        <v>班级28</v>
+      </c>
+      <c r="C28" t="str">
+        <v>班级26</v>
+      </c>
+      <c r="D28" t="str">
+        <v>班级1</v>
+      </c>
+      <c r="E28" t="str">
+        <v>班级27</v>
+      </c>
+      <c r="F28" t="str">
+        <v>班级20</v>
+      </c>
+      <c r="H28" t="str">
+        <v>班级8</v>
+      </c>
+      <c r="J28" t="str">
+        <v>班级23</v>
+      </c>
+      <c r="K28" t="str">
+        <v>班级2</v>
+      </c>
+      <c r="L28" t="str">
+        <v>班级17</v>
+      </c>
+      <c r="M28" t="str">
+        <v>班级15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="str">
+        <v>班级26</v>
+      </c>
+      <c r="C29" t="str">
+        <v>班级28</v>
+      </c>
+      <c r="D29" t="str">
+        <v>班级3</v>
+      </c>
+      <c r="E29" t="str">
+        <v>班级8</v>
+      </c>
+      <c r="F29" t="str">
+        <v>班级14</v>
+      </c>
+      <c r="G29" t="str">
+        <v>班级20</v>
+      </c>
+      <c r="I29" t="str">
+        <v>班级27</v>
+      </c>
+      <c r="K29" t="str">
+        <v>班级23</v>
+      </c>
+      <c r="M29" t="str">
+        <v>班级11</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="G30" t="str">
+        <v>班级27</v>
+      </c>
+      <c r="H30" t="str">
+        <v>班级20</v>
+      </c>
+      <c r="J30" t="str">
+        <v>班级26</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="I31" t="str">
+        <v>班级20</v>
+      </c>
+      <c r="L31" t="str">
+        <v>班级27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="true" defaultGridColor="false" workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1"/>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Hello world.</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
 </file>